--- a/workspace/code/analyzer/file_processing/template/excel_format_bkp.xlsx
+++ b/workspace/code/analyzer/file_processing/template/excel_format_bkp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Stock market investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D8C00301-D5A2-495A-878D-7B4F74450377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAF04FDD-7096-4ED6-92AD-3D354BE20B1E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D8C00301-D5A2-495A-878D-7B4F74450377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{078B6E5F-64F6-4062-8F6F-38C6B0259D41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BD4D62F-CA13-407D-B30F-E9A78808E7C9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>Sales = Revenue</t>
   </si>
@@ -63,34 +63,37 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
     <t>CMP</t>
   </si>
   <si>
     <t>Valuation</t>
   </si>
   <si>
-    <t>Current P/E</t>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>Current P/E(x)</t>
   </si>
   <si>
     <t>Avg PE (5 yrs)</t>
   </si>
   <si>
-    <t>PEG</t>
-  </si>
-  <si>
     <t>EPS</t>
   </si>
   <si>
-    <t>EPS CAGR(3 yrs)</t>
-  </si>
-  <si>
-    <t>ROE</t>
-  </si>
-  <si>
-    <t>ROCE</t>
-  </si>
-  <si>
-    <t>P/B</t>
+    <t>EPS CAGR %(3 yrs)</t>
+  </si>
+  <si>
+    <t>ROE(%)</t>
+  </si>
+  <si>
+    <t>ROCE(%)</t>
+  </si>
+  <si>
+    <t>P/B(x)</t>
   </si>
   <si>
     <t>Dividend Yield</t>
@@ -102,18 +105,21 @@
     <t>Interest Coverage Ratios</t>
   </si>
   <si>
-    <t>Revenue CAGR</t>
-  </si>
-  <si>
-    <t>Profit CAGR</t>
-  </si>
-  <si>
-    <t>Net Profit CAGR</t>
+    <t>Revenue CAGR(3 yrs)</t>
+  </si>
+  <si>
+    <t>Profit CAGR(3 yrs)</t>
+  </si>
+  <si>
+    <t>Net Profit CAGR(3 yrs)</t>
   </si>
   <si>
     <t>Revenue</t>
   </si>
   <si>
+    <t>Expenses</t>
+  </si>
+  <si>
     <t>Profit</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
   </si>
   <si>
     <t>Net Cash Flow</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
   <si>
     <t>Same structure as yearly</t>
@@ -565,93 +574,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4B59EE-406E-4588-820C-A407EF25A70E}">
-  <dimension ref="A1:BV52"/>
+  <dimension ref="A1:CZ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:BV7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.28515625" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:104">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:104">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -659,14 +701,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:104">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:104">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -782,7 +824,7 @@
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:104" ht="15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -840,23 +882,29 @@
       <c r="S5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>25</v>
@@ -868,79 +916,79 @@
         <v>27</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AI5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AM5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AX5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AY5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AQ5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="AZ5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BD5" s="2" t="s">
         <v>25</v>
@@ -952,68 +1000,158 @@
         <v>27</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BH5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BI5" s="2" t="s">
+      <c r="BL5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BJ5" s="2" t="s">
+      <c r="BM5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BK5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL5" s="2" t="s">
+      <c r="BN5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BM5" s="2" t="s">
+      <c r="BS5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BN5" s="2" t="s">
+      <c r="BT5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BO5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BP5" s="2" t="s">
+      <c r="BU5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BV5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BY5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BQ5" s="2" t="s">
+      <c r="BZ5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BR5" s="2" t="s">
+      <c r="CA5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BS5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="BT5" s="2" t="s">
+      <c r="CB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CD5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CF5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="2" t="s">
+      <c r="CG5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BV5" s="2" t="s">
+      <c r="CH5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:74">
+      <c r="CI5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CN5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CU5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CW5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CX5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CY5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="CZ5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:104">
       <c r="N11" s="3"/>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:104">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:104">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:104">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1071,7 +1209,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
